--- a/Testcase Generate from Gitlab/input/RPA-result-template.xlsx
+++ b/Testcase Generate from Gitlab/input/RPA-result-template.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Testcase\RPA\erp-web\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\source\RPA\RPA-Generate-Testcase-From-Gitlab\Testcase Generate from Gitlab\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7180"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15530" windowHeight="7180"/>
   </bookViews>
   <sheets>
     <sheet name="RPA Result" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>No</t>
   </si>
@@ -43,28 +43,13 @@
   </si>
   <si>
     <t>Finish</t>
-  </si>
-  <si>
-    <t>State</t>
-  </si>
-  <si>
-    <t>Working</t>
-  </si>
-  <si>
-    <t>https://git.iptp.net/erp/erp-web/-/issues/40</t>
-  </si>
-  <si>
-    <t>https://git.iptp.net/erp/erp-web/-/issues/43</t>
-  </si>
-  <si>
-    <t>D:\Testcase\RPA\erp-web\Testcase-Issue-40/Testcase-43-PR - Status change.xlsx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -81,13 +66,6 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color theme="10"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
@@ -109,20 +87,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -339,10 +313,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AF4"/>
+  <dimension ref="A1:AF2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -403,54 +377,12 @@
       <c r="AE1" s="1"/>
       <c r="AF1" s="1"/>
     </row>
-    <row r="2" spans="1:32" ht="13" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3">
-        <v>40</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="3">
-        <v>43</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>3</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M4" s="3" t="s">
+    <row r="2" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M2" s="3" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="E2" r:id="rId2"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>